--- a/SPPSApi/Doc/Template/FS0503_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS0503_Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>箱种</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,14 @@
   </si>
   <si>
     <t>英文数字格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">此列禁止修改 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此列禁止修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +675,7 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -782,7 +790,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1062,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>50</v>
@@ -1068,7 +1076,9 @@
       <c r="L4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="14"/>
+      <c r="M4" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="N4" s="13" t="s">
         <v>53</v>
       </c>
